--- a/Contacts From Database.xlsx
+++ b/Contacts From Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Snehil\Desktop\AddressBookSystem-BluePrism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14FE157-1265-441E-8BE8-C29567F855C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F174AD-CA8C-4DDB-8227-D47276B85A1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3130" yWindow="1630" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
